--- a/data/trans_orig/P45C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>239255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226229</v>
+        <v>227209</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>249584</v>
+        <v>249076</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8763612508385176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8286470191176736</v>
+        <v>0.8322379011112792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9141942233879968</v>
+        <v>0.9123345541560659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>206</v>
@@ -765,19 +765,19 @@
         <v>222627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209326</v>
+        <v>211458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>232777</v>
+        <v>233485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8535070913966202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.802512992987487</v>
+        <v>0.8106871924994168</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8924205838304452</v>
+        <v>0.8951327836102201</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>444</v>
@@ -786,19 +786,19 @@
         <v>461882</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>445577</v>
+        <v>445416</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>477610</v>
+        <v>476978</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8651947109691578</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8346522240202057</v>
+        <v>0.8343504458388847</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8946560820011373</v>
+        <v>0.8934709726846273</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>33755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23426</v>
+        <v>23934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46781</v>
+        <v>45801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1236387491614824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08580577661200314</v>
+        <v>0.08766544584393393</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1713529808823265</v>
+        <v>0.1677620988887208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>38211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28061</v>
+        <v>27353</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51512</v>
+        <v>49380</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1464929086033799</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.107579416169555</v>
+        <v>0.1048672163897799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1974870070125132</v>
+        <v>0.1893128075005833</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -857,19 +857,19 @@
         <v>71966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56238</v>
+        <v>56870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>88271</v>
+        <v>88432</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1348052890308422</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1053439179988631</v>
+        <v>0.1065290273153726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1653477759797943</v>
+        <v>0.1656495541611153</v>
       </c>
     </row>
     <row r="6">
@@ -1008,19 +1008,19 @@
         <v>374301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352812</v>
+        <v>354907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>392575</v>
+        <v>394331</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7591147731794727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7155336861714441</v>
+        <v>0.719782287674903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7961772699187084</v>
+        <v>0.799737639356249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>397</v>
@@ -1029,19 +1029,19 @@
         <v>403362</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>385999</v>
+        <v>385854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>421327</v>
+        <v>420461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8004019404737441</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7659476872071052</v>
+        <v>0.7656606453066297</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8360513766895558</v>
+        <v>0.8343316906838655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>750</v>
@@ -1050,19 +1050,19 @@
         <v>777662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>752357</v>
+        <v>750324</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>805961</v>
+        <v>801427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7799835041305828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7546030572315469</v>
+        <v>0.7525633088020334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8083669746537324</v>
+        <v>0.8038189158655568</v>
       </c>
     </row>
     <row r="9">
@@ -1079,19 +1079,19 @@
         <v>103940</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87052</v>
+        <v>86039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>125307</v>
+        <v>122631</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.21079858016846</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1765493309872035</v>
+        <v>0.1744949318221729</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2541343989365701</v>
+        <v>0.2487071975852435</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -1100,19 +1100,19 @@
         <v>86301</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>69719</v>
+        <v>70181</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103629</v>
+        <v>102947</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1712498675583199</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1383448234365287</v>
+        <v>0.1392615160002939</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2056344105313971</v>
+        <v>0.2042801515670325</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>186</v>
@@ -1121,19 +1121,19 @@
         <v>190241</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>164113</v>
+        <v>167533</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>215081</v>
+        <v>218334</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1908085567056902</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1646024802827351</v>
+        <v>0.1680332737138013</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2157233335605201</v>
+        <v>0.2189854260439095</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>14835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8823</v>
+        <v>8732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24749</v>
+        <v>24291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03008664665206726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01789438178166038</v>
+        <v>0.01770889484547665</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05019230763366007</v>
+        <v>0.04926425218635011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1171,19 +1171,19 @@
         <v>14286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8980</v>
+        <v>8218</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23828</v>
+        <v>25110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02834819196793596</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01781855145250383</v>
+        <v>0.0163081506668862</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04728248925702722</v>
+        <v>0.04982611254823363</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1192,19 +1192,19 @@
         <v>29121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20576</v>
+        <v>19928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42829</v>
+        <v>41307</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.029207939163727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02063736948986776</v>
+        <v>0.01998783983238922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04295713925061751</v>
+        <v>0.04143074013882594</v>
       </c>
     </row>
     <row r="11">
@@ -1296,19 +1296,19 @@
         <v>278824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>264658</v>
+        <v>265200</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>288410</v>
+        <v>289704</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8744789881733434</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8300504343668524</v>
+        <v>0.8317503401402606</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.904543262412106</v>
+        <v>0.9086018694432738</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>296</v>
@@ -1317,19 +1317,19 @@
         <v>297131</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>283949</v>
+        <v>283809</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>308017</v>
+        <v>307539</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8858694432871103</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8465681681186099</v>
+        <v>0.8461494701378399</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9183244667977295</v>
+        <v>0.9168978089883731</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>566</v>
@@ -1338,19 +1338,19 @@
         <v>575955</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>557253</v>
+        <v>560917</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>591900</v>
+        <v>590876</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8803184213296605</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8517321039933409</v>
+        <v>0.8573326694326935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9046892605096964</v>
+        <v>0.9031236495193646</v>
       </c>
     </row>
     <row r="13">
@@ -1367,19 +1367,19 @@
         <v>40022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30436</v>
+        <v>29142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54188</v>
+        <v>53646</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1255210118266566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09545673758789401</v>
+        <v>0.0913981305567262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1699495656331476</v>
+        <v>0.1682496598597394</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1388,19 +1388,19 @@
         <v>37281</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26837</v>
+        <v>27071</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50712</v>
+        <v>49858</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1111486906661773</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08001190136449376</v>
+        <v>0.08071055906637574</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1511934096858132</v>
+        <v>0.1486472516332959</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1409,19 +1409,19 @@
         <v>77302</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61922</v>
+        <v>62598</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95311</v>
+        <v>92897</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1181528945846769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09464458156139256</v>
+        <v>0.09567845926490331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1456776507757254</v>
+        <v>0.1419881937086488</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5008</v>
+        <v>6025</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002981866046712471</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01493235114286648</v>
+        <v>0.01796440849578347</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5027</v>
+        <v>5651</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001528684085662564</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007683782368434489</v>
+        <v>0.008637452925434951</v>
       </c>
     </row>
     <row r="15">
@@ -1576,19 +1576,19 @@
         <v>277080</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>260007</v>
+        <v>258982</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>290591</v>
+        <v>292130</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7725194027470146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7249169450649662</v>
+        <v>0.7220589365851019</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.810187340093284</v>
+        <v>0.8144801349786426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>335</v>
@@ -1597,19 +1597,19 @@
         <v>324538</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>310197</v>
+        <v>311814</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>335300</v>
+        <v>335202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8736905666434951</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8350846249432098</v>
+        <v>0.8394381303772042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9026638221297247</v>
+        <v>0.9023994502776935</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>615</v>
@@ -1618,19 +1618,19 @@
         <v>601618</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>579580</v>
+        <v>579462</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>618812</v>
+        <v>619972</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8239907609543101</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7938073700271143</v>
+        <v>0.7936460790145987</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8475397620563664</v>
+        <v>0.8491285725119043</v>
       </c>
     </row>
     <row r="17">
@@ -1647,19 +1647,19 @@
         <v>71567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57842</v>
+        <v>57589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>87463</v>
+        <v>88285</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1995342762324019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1612673395268327</v>
+        <v>0.1605628800773477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2438522535444363</v>
+        <v>0.246145973811685</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -1668,19 +1668,19 @@
         <v>45078</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34645</v>
+        <v>33927</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59267</v>
+        <v>57694</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1213546155399387</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0932668299377435</v>
+        <v>0.0913354775407168</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1595543406049597</v>
+        <v>0.1553190366133025</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>119</v>
@@ -1689,19 +1689,19 @@
         <v>116645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99470</v>
+        <v>99086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136863</v>
+        <v>137616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1597599654006712</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1362369972368573</v>
+        <v>0.1357112687652475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1874511514198638</v>
+        <v>0.1884829219630165</v>
       </c>
     </row>
     <row r="18">
@@ -1718,19 +1718,19 @@
         <v>10024</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4599</v>
+        <v>4754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18506</v>
+        <v>19747</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0279463210205835</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01282180227997403</v>
+        <v>0.01325370501811943</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05159653591892213</v>
+        <v>0.05505560279908668</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6892</v>
+        <v>6543</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.004954817816566199</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01855375110199857</v>
+        <v>0.01761402082550675</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1760,19 +1760,19 @@
         <v>11864</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6287</v>
+        <v>6311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21797</v>
+        <v>21674</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01624927364501877</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008611224951037218</v>
+        <v>0.008644196221835975</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02985317345254625</v>
+        <v>0.02968501466966815</v>
       </c>
     </row>
     <row r="19">
@@ -1864,19 +1864,19 @@
         <v>191915</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183660</v>
+        <v>183921</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>196837</v>
+        <v>197079</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9439615311275321</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9033593476588019</v>
+        <v>0.9046416382888451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9681719838466538</v>
+        <v>0.9693618615861542</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>184</v>
@@ -1885,19 +1885,19 @@
         <v>194194</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>186340</v>
+        <v>186368</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>199990</v>
+        <v>199982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9351192620617451</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8972956677383085</v>
+        <v>0.8974341743484134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9630281327847482</v>
+        <v>0.9629901903668577</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>378</v>
@@ -1906,19 +1906,19 @@
         <v>386109</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>375988</v>
+        <v>376958</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394335</v>
+        <v>395085</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9394934937559243</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9148670003598335</v>
+        <v>0.9172256989890591</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9595096760998667</v>
+        <v>0.9613335511705834</v>
       </c>
     </row>
     <row r="21">
@@ -1935,19 +1935,19 @@
         <v>10539</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5921</v>
+        <v>6028</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18956</v>
+        <v>18353</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05183634233831766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02912475089728383</v>
+        <v>0.0296504791751381</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09323896688622275</v>
+        <v>0.09027419174306665</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1956,19 +1956,19 @@
         <v>13474</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7678</v>
+        <v>7686</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21328</v>
+        <v>21300</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06488073793825484</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0369718672152518</v>
+        <v>0.03700980963314222</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1027043322616915</v>
+        <v>0.1025658256515865</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -1977,19 +1977,19 @@
         <v>24012</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15980</v>
+        <v>15047</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34527</v>
+        <v>33717</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05842773269264057</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03888188967060539</v>
+        <v>0.03661375151628801</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08401326708830439</v>
+        <v>0.08204201326757438</v>
       </c>
     </row>
     <row r="22">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4799</v>
+        <v>3567</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004202126534150272</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02360531843055443</v>
+        <v>0.01754543532957207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4350</v>
+        <v>3682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002078773551435163</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01058527750239563</v>
+        <v>0.008958469870671167</v>
       </c>
     </row>
     <row r="23">
@@ -2144,19 +2144,19 @@
         <v>201617</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>187279</v>
+        <v>187266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>215533</v>
+        <v>216409</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7444951329219786</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6915500766993277</v>
+        <v>0.6915007741313169</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7958808186527774</v>
+        <v>0.7991142325680786</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>225</v>
@@ -2165,19 +2165,19 @@
         <v>232401</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>220059</v>
+        <v>219976</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>245035</v>
+        <v>243668</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8355422694457089</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7911708074184421</v>
+        <v>0.7908722876959254</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8809649681175656</v>
+        <v>0.8760514751433722</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>425</v>
@@ -2186,19 +2186,19 @@
         <v>434019</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>413228</v>
+        <v>413178</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>451345</v>
+        <v>452272</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7906268095746076</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7527534198017084</v>
+        <v>0.7526630921283771</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.822189832453059</v>
+        <v>0.8238781678213034</v>
       </c>
     </row>
     <row r="25">
@@ -2215,19 +2215,19 @@
         <v>67282</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53429</v>
+        <v>52688</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81621</v>
+        <v>82219</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2484460509548342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1972915293391836</v>
+        <v>0.1945574431857429</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3013948824609411</v>
+        <v>0.3036011594307546</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -2236,19 +2236,19 @@
         <v>43795</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31781</v>
+        <v>33252</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55970</v>
+        <v>56788</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1574532721173332</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1142616262497641</v>
+        <v>0.1195490469508492</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2012266127100941</v>
+        <v>0.2041681905176151</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -2257,19 +2257,19 @@
         <v>111077</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>94860</v>
+        <v>93719</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>131221</v>
+        <v>130876</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.202341916203032</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1728006124909153</v>
+        <v>0.1707233262733705</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2390379584543731</v>
+        <v>0.2384095601338126</v>
       </c>
     </row>
     <row r="26">
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7233</v>
+        <v>6879</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007058816123187303</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0267073226964627</v>
+        <v>0.02540234704248068</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7196</v>
+        <v>6783</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007004458436957945</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02587273841074165</v>
+        <v>0.02438532521351692</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2328,19 +2328,19 @@
         <v>3860</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9790</v>
+        <v>9569</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007031274222360315</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001814526576901826</v>
+        <v>0.001803403078150675</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0178332230945248</v>
+        <v>0.01743142139095559</v>
       </c>
     </row>
     <row r="27">
@@ -2432,19 +2432,19 @@
         <v>534837</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>516360</v>
+        <v>517757</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>551383</v>
+        <v>551974</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8696161162861716</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8395728670621471</v>
+        <v>0.8418436800963548</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8965180250422097</v>
+        <v>0.8974794182097655</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>557</v>
@@ -2453,19 +2453,19 @@
         <v>574632</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>559256</v>
+        <v>558906</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>588478</v>
+        <v>588860</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9017526446166922</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8776238942859407</v>
+        <v>0.8770739780854369</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9234812721012301</v>
+        <v>0.9240799126809347</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1075</v>
@@ -2474,19 +2474,19 @@
         <v>1109469</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1085976</v>
+        <v>1084311</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1130406</v>
+        <v>1130006</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8859693903100639</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8672085293660405</v>
+        <v>0.8658791773731648</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9026886644718132</v>
+        <v>0.9023690704420173</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>65275</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>50429</v>
+        <v>51402</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>82161</v>
+        <v>80358</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.106134072026558</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08199405258661344</v>
+        <v>0.08357732100843934</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1335885376811493</v>
+        <v>0.130657290734711</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -2524,19 +2524,19 @@
         <v>44595</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>32266</v>
+        <v>32874</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>57858</v>
+        <v>58653</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06998180462488973</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05063378133013759</v>
+        <v>0.05158889704835437</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09079440959645815</v>
+        <v>0.09204258956925507</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>112</v>
@@ -2545,19 +2545,19 @@
         <v>109870</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>92205</v>
+        <v>92338</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>129490</v>
+        <v>130788</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08773731400328921</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07363052582490186</v>
+        <v>0.07373665290166997</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1034041642763291</v>
+        <v>0.1044411789574577</v>
       </c>
     </row>
     <row r="30">
@@ -2574,19 +2574,19 @@
         <v>14914</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8608</v>
+        <v>8180</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25008</v>
+        <v>26596</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02424981168727037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01399654690848627</v>
+        <v>0.01329988660989499</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04066126985523715</v>
+        <v>0.04324358120999489</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -2595,19 +2595,19 @@
         <v>18012</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11177</v>
+        <v>11037</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27550</v>
+        <v>28776</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02826555075841802</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01753900358191628</v>
+        <v>0.01731990241976387</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04323395790858032</v>
+        <v>0.04515718859753957</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>31</v>
@@ -2616,19 +2616,19 @@
         <v>32926</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23216</v>
+        <v>22821</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>47864</v>
+        <v>47011</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02629329568664686</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0185394092322346</v>
+        <v>0.01822407956671441</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0382218844087128</v>
+        <v>0.03754037606856596</v>
       </c>
     </row>
     <row r="31">
@@ -2720,19 +2720,19 @@
         <v>657567</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>641059</v>
+        <v>639594</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>672683</v>
+        <v>671838</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8932928849067889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8708665759997237</v>
+        <v>0.8688772807379237</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9138272359557813</v>
+        <v>0.9126790931102953</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>668</v>
@@ -2741,19 +2741,19 @@
         <v>703172</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>684488</v>
+        <v>682998</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>717090</v>
+        <v>718436</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9058070593147315</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8817393599814586</v>
+        <v>0.8798193995605141</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9237368511762345</v>
+        <v>0.9254702101599449</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1315</v>
@@ -2762,19 +2762,19 @@
         <v>1360739</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1338085</v>
+        <v>1337606</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1383600</v>
+        <v>1379924</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8997161897814299</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8847377930751339</v>
+        <v>0.8844205697550812</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9148320083511797</v>
+        <v>0.9124011170273394</v>
       </c>
     </row>
     <row r="33">
@@ -2791,19 +2791,19 @@
         <v>65946</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>51823</v>
+        <v>51709</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>80855</v>
+        <v>81071</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08958709623940951</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07040021941492784</v>
+        <v>0.0702462350778089</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1098397958596941</v>
+        <v>0.1101330316281229</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>52</v>
@@ -2812,19 +2812,19 @@
         <v>53857</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>41041</v>
+        <v>41091</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>71412</v>
+        <v>71691</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06937723419058855</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05286775833878449</v>
+        <v>0.05293255471145111</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09199138819322225</v>
+        <v>0.09235027683503286</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>121</v>
@@ -2833,19 +2833,19 @@
         <v>119804</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>99392</v>
+        <v>101735</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>140795</v>
+        <v>141495</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07921373071146692</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06571799236920654</v>
+        <v>0.06726702933883058</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09309307134517701</v>
+        <v>0.09355631522153418</v>
       </c>
     </row>
     <row r="34">
@@ -2862,19 +2862,19 @@
         <v>12602</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6996</v>
+        <v>6445</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21206</v>
+        <v>22377</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01712001885380156</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009504343719884423</v>
+        <v>0.008754744059125271</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02880822289699122</v>
+        <v>0.03039939045239583</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -2883,19 +2883,19 @@
         <v>19264</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11474</v>
+        <v>11927</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28961</v>
+        <v>31061</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02481570649467998</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01478004278073297</v>
+        <v>0.01536391274287931</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03730667023874887</v>
+        <v>0.04001131435706871</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>30</v>
@@ -2904,19 +2904,19 @@
         <v>31867</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>20449</v>
+        <v>21920</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>45529</v>
+        <v>44849</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02107007950710322</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01352059105455448</v>
+        <v>0.01449332171608591</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03010360752360406</v>
+        <v>0.02965377153712579</v>
       </c>
     </row>
     <row r="35">
@@ -3008,19 +3008,19 @@
         <v>2755397</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2868</v>
@@ -3029,19 +3029,19 @@
         <v>2952057</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5568</v>
@@ -3050,19 +3050,19 @@
         <v>5707455</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="37">
@@ -3079,19 +3079,19 @@
         <v>458326</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>419808</v>
+        <v>417068</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>496440</v>
+        <v>493669</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1402094533985785</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1284261504445329</v>
+        <v>0.1275879382582348</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1518694112337022</v>
+        <v>0.1510214369556856</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>366</v>
@@ -3100,19 +3100,19 @@
         <v>362591</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>327557</v>
+        <v>325958</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>399783</v>
+        <v>396727</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1075619320311465</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09716899550954909</v>
+        <v>0.09669465640391395</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.118594842445291</v>
+        <v>0.1176882421659786</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>820</v>
@@ -3121,19 +3121,19 @@
         <v>820917</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>766444</v>
+        <v>770629</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>875041</v>
+        <v>876645</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1236345998823088</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1154306701881739</v>
+        <v>0.1160608868160219</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1317859100334986</v>
+        <v>0.1320275093142461</v>
       </c>
     </row>
     <row r="38">
@@ -3150,19 +3150,19 @@
         <v>55141</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>42263</v>
+        <v>40775</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>71313</v>
+        <v>71734</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01686856630157643</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01292901206384162</v>
+        <v>0.01247373330250917</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0218158423528154</v>
+        <v>0.02194451073057407</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>55</v>
@@ -3171,19 +3171,19 @@
         <v>56351</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>42229</v>
+        <v>42819</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>72248</v>
+        <v>71619</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01671644130145013</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01252723058804069</v>
+        <v>0.01270210593630285</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02143218670027817</v>
+        <v>0.02124561445018671</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>107</v>
@@ -3192,19 +3192,19 @@
         <v>111492</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>90791</v>
+        <v>92439</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>134294</v>
+        <v>134879</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01679133380466255</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01367359626463664</v>
+        <v>0.01392179433862562</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02022537227755782</v>
+        <v>0.02031356930901283</v>
       </c>
     </row>
     <row r="39">
@@ -3540,19 +3540,19 @@
         <v>240759</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226058</v>
+        <v>224933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>253764</v>
+        <v>253209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.81685893105463</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7669804458003805</v>
+        <v>0.7631630500757588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8609816179801174</v>
+        <v>0.8590976607070973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>219</v>
@@ -3561,19 +3561,19 @@
         <v>245706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>232169</v>
+        <v>232633</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256342</v>
+        <v>256330</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8651722580282045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8175038990220767</v>
+        <v>0.8191384332672916</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9026207978620066</v>
+        <v>0.9025803602858804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>450</v>
@@ -3582,19 +3582,19 @@
         <v>486466</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>465784</v>
+        <v>463581</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>505010</v>
+        <v>503056</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.840567242341592</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.804831366703032</v>
+        <v>0.8010243346021618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8726104239351535</v>
+        <v>0.869234451719554</v>
       </c>
     </row>
     <row r="5">
@@ -3611,19 +3611,19 @@
         <v>44674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32281</v>
+        <v>32981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58618</v>
+        <v>60108</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1515702123472132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1095232802915046</v>
+        <v>0.1118989612340203</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1988825760668429</v>
+        <v>0.2039371453993603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -3632,19 +3632,19 @@
         <v>34274</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24199</v>
+        <v>23809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47497</v>
+        <v>47319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1206847073119909</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08520824685535767</v>
+        <v>0.0838345238005072</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1672459912538566</v>
+        <v>0.1666165763525905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -3653,19 +3653,19 @@
         <v>78948</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61928</v>
+        <v>63449</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96587</v>
+        <v>98845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.136414080209375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1070062113790517</v>
+        <v>0.1096340244520415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1668937998095401</v>
+        <v>0.1707950555371741</v>
       </c>
     </row>
     <row r="6">
@@ -3682,19 +3682,19 @@
         <v>9305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4767</v>
+        <v>4401</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17548</v>
+        <v>17353</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03157085659815666</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01617515474141815</v>
+        <v>0.01493261170723116</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05953756723166013</v>
+        <v>0.05887503658484249</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3703,19 +3703,19 @@
         <v>4017</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11638</v>
+        <v>11212</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01414303465980463</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003508560212170361</v>
+        <v>0.003449681476799756</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04097914591411696</v>
+        <v>0.03947862409147161</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3724,19 +3724,19 @@
         <v>13322</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7306</v>
+        <v>7371</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23378</v>
+        <v>23237</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02301867744903307</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01262343375268958</v>
+        <v>0.01273661657510353</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04039559511844579</v>
+        <v>0.040150703740054</v>
       </c>
     </row>
     <row r="7">
@@ -3828,19 +3828,19 @@
         <v>438178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>422072</v>
+        <v>421709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452658</v>
+        <v>450977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8790686817526077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8467569893106418</v>
+        <v>0.8460298322114246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9081184018892209</v>
+        <v>0.9047458876644425</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>421</v>
@@ -3849,19 +3849,19 @@
         <v>462330</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>448959</v>
+        <v>445537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>475574</v>
+        <v>474447</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9006479855998027</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8746017503698107</v>
+        <v>0.8679357983036717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.926449541761405</v>
+        <v>0.9242526140911136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>827</v>
@@ -3870,19 +3870,19 @@
         <v>900508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>878650</v>
+        <v>879380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>920798</v>
+        <v>920364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.89001693820702</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.868413532834012</v>
+        <v>0.869135269029636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9100711560846656</v>
+        <v>0.9096423480497877</v>
       </c>
     </row>
     <row r="9">
@@ -3899,19 +3899,19 @@
         <v>54470</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>41582</v>
+        <v>42107</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>69050</v>
+        <v>71227</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1092766825482191</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08342221953334819</v>
+        <v>0.08447561555208126</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1385267954353966</v>
+        <v>0.1428943114557559</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -3920,19 +3920,19 @@
         <v>49892</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37509</v>
+        <v>37993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63683</v>
+        <v>65850</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09719240110851689</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07306959551209094</v>
+        <v>0.0740121274858563</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1240580028998406</v>
+        <v>0.1282795602190585</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>101</v>
@@ -3941,19 +3941,19 @@
         <v>104362</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84670</v>
+        <v>84615</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>125269</v>
+        <v>125805</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.103145724237145</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08368330980519667</v>
+        <v>0.08362919485222893</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1238094262457326</v>
+        <v>0.1243390515554982</v>
       </c>
     </row>
     <row r="10">
@@ -3970,19 +3970,19 @@
         <v>5809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1951</v>
+        <v>1922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12485</v>
+        <v>12879</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01165463569917323</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003914082534557261</v>
+        <v>0.003856860287026339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02504642293361411</v>
+        <v>0.02583740321666985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6384</v>
+        <v>5591</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002159613291680351</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01243677536124987</v>
+        <v>0.01089132093154936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -4012,19 +4012,19 @@
         <v>6918</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2974</v>
+        <v>2908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13783</v>
+        <v>13137</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006837337555835036</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002939207310100995</v>
+        <v>0.002873827562106779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01362253636403573</v>
+        <v>0.01298431106539733</v>
       </c>
     </row>
     <row r="11">
@@ -4116,19 +4116,19 @@
         <v>225516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>206974</v>
+        <v>207183</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>240021</v>
+        <v>242288</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6979524677815254</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6405650971025821</v>
+        <v>0.6412125458649993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7428441417848798</v>
+        <v>0.7498600538563731</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>262</v>
@@ -4137,19 +4137,19 @@
         <v>281908</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>265916</v>
+        <v>267820</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>294512</v>
+        <v>295558</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.832235221103367</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7850252357197949</v>
+        <v>0.7906466307952946</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8694437913753933</v>
+        <v>0.8725310473132694</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>484</v>
@@ -4158,19 +4158,19 @@
         <v>507424</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>483107</v>
+        <v>486454</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>528081</v>
+        <v>529191</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7666789828838482</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7299379225641304</v>
+        <v>0.7349944334582283</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7978902918713671</v>
+        <v>0.7995672339967471</v>
       </c>
     </row>
     <row r="13">
@@ -4187,19 +4187,19 @@
         <v>96573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81902</v>
+        <v>80063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113937</v>
+        <v>115012</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2988846948048146</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2534805005995951</v>
+        <v>0.2477870065307775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3526247511465881</v>
+        <v>0.3559508009379706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -4208,19 +4208,19 @@
         <v>45925</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34823</v>
+        <v>33863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60796</v>
+        <v>60573</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1355787895109675</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.102802276626236</v>
+        <v>0.09996729032362199</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1794778886705033</v>
+        <v>0.1788204826753784</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -4229,19 +4229,19 @@
         <v>142498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122346</v>
+        <v>121427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164645</v>
+        <v>162871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2153040004205079</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1848553059876963</v>
+        <v>0.1834674856569542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2487663896752607</v>
+        <v>0.2460853516857937</v>
       </c>
     </row>
     <row r="14">
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5160</v>
+        <v>5490</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003162837413660017</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01597093681875134</v>
+        <v>0.01698977433607163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -4279,19 +4279,19 @@
         <v>10903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5030</v>
+        <v>5676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18679</v>
+        <v>18873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03218598938566552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01484881772606167</v>
+        <v>0.01675577191765011</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05514405785090783</v>
+        <v>0.05571623946220849</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -4300,19 +4300,19 @@
         <v>11925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5892</v>
+        <v>6123</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20783</v>
+        <v>21181</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01801701669564386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008902048918102732</v>
+        <v>0.009250895604701289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03140146212981527</v>
+        <v>0.03200343564262019</v>
       </c>
     </row>
     <row r="15">
@@ -4404,19 +4404,19 @@
         <v>323185</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>309456</v>
+        <v>307108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>336674</v>
+        <v>334546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8765490965452973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8393119951507475</v>
+        <v>0.8329447530147339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9131329728248546</v>
+        <v>0.9073624054442018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>337</v>
@@ -4425,19 +4425,19 @@
         <v>352281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>338865</v>
+        <v>339747</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>361686</v>
+        <v>362771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9180968098172684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8831319499667469</v>
+        <v>0.8854305533000136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9426069823764101</v>
+        <v>0.9454344520093714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>634</v>
@@ -4446,19 +4446,19 @@
         <v>675466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>655849</v>
+        <v>655662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>689481</v>
+        <v>692869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.897737266957784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8716645297725885</v>
+        <v>0.871415627619065</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9163629060589491</v>
+        <v>0.9208661959166218</v>
       </c>
     </row>
     <row r="17">
@@ -4475,19 +4475,19 @@
         <v>29734</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20680</v>
+        <v>19606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42253</v>
+        <v>42348</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08064604420882465</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05608798153811766</v>
+        <v>0.05317567319980424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1146005806030448</v>
+        <v>0.1148574430507286</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -4496,19 +4496,19 @@
         <v>15390</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8788</v>
+        <v>7666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27098</v>
+        <v>25691</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04010821215446946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0229017593328947</v>
+        <v>0.01997976816234254</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07062067461438799</v>
+        <v>0.06695530946739027</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -4517,19 +4517,19 @@
         <v>45124</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32181</v>
+        <v>32489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60550</v>
+        <v>59651</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05997288494015587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04277067883652217</v>
+        <v>0.04317978547706559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08047483075105549</v>
+        <v>0.07928001446227671</v>
       </c>
     </row>
     <row r="18">
@@ -4546,19 +4546,19 @@
         <v>15782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8487</v>
+        <v>8717</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25872</v>
+        <v>26285</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04280485924587797</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02301738012459289</v>
+        <v>0.02364360833800103</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0701705694521817</v>
+        <v>0.07129196991146509</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -4567,19 +4567,19 @@
         <v>16037</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9352</v>
+        <v>9902</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24874</v>
+        <v>25452</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04179497802826215</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02437323013405638</v>
+        <v>0.02580702824491291</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06482487175434298</v>
+        <v>0.06633249164611774</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -4588,19 +4588,19 @@
         <v>31819</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22224</v>
+        <v>21408</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46373</v>
+        <v>44022</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04228984810206014</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02953687708564235</v>
+        <v>0.02845234087572385</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06163294538255291</v>
+        <v>0.05850778620398235</v>
       </c>
     </row>
     <row r="19">
@@ -4692,19 +4692,19 @@
         <v>189632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179719</v>
+        <v>179981</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197220</v>
+        <v>197617</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.891891359534088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8452694212667546</v>
+        <v>0.8465012403549663</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9275768530033709</v>
+        <v>0.9294466646693773</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>187</v>
@@ -4713,19 +4713,19 @@
         <v>194303</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183799</v>
+        <v>184328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>202251</v>
+        <v>202209</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.888879397463434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8408262972658554</v>
+        <v>0.8432470030002447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9252417698834794</v>
+        <v>0.9250465745184688</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>360</v>
@@ -4734,19 +4734,19 @@
         <v>383935</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>369995</v>
+        <v>370687</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394750</v>
+        <v>394570</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8903645105050684</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8580359764876863</v>
+        <v>0.8596419813666133</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9154443554208037</v>
+        <v>0.9150274652367973</v>
       </c>
     </row>
     <row r="21">
@@ -4763,19 +4763,19 @@
         <v>22986</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15398</v>
+        <v>15001</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32899</v>
+        <v>32637</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.108108640465912</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07242314699662906</v>
+        <v>0.07055333533062273</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1547305787332453</v>
+        <v>0.1534987596450337</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -4784,19 +4784,19 @@
         <v>22327</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14484</v>
+        <v>15007</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32349</v>
+        <v>32563</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1021381188146916</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0662598169522626</v>
+        <v>0.06865497563063577</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.147986088918121</v>
+        <v>0.1489666661145426</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -4805,19 +4805,19 @@
         <v>45313</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34674</v>
+        <v>35519</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>59313</v>
+        <v>59689</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1050820136452338</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0804099068715874</v>
+        <v>0.08237080784742835</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1375504099081518</v>
+        <v>0.1384211119325387</v>
       </c>
     </row>
     <row r="22">
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6289</v>
+        <v>5926</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008982483721874317</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02877116823553166</v>
+        <v>0.02710976695567649</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6838</v>
+        <v>6409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004553475849697758</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01585715849412848</v>
+        <v>0.01486225063240603</v>
       </c>
     </row>
     <row r="23">
@@ -4972,19 +4972,19 @@
         <v>181833</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>164489</v>
+        <v>164680</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>196885</v>
+        <v>194988</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6683070709304002</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6045598206146879</v>
+        <v>0.6052632219333706</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7236285685563616</v>
+        <v>0.7166576781659845</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>206</v>
@@ -4993,19 +4993,19 @@
         <v>215036</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>199839</v>
+        <v>200767</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>229156</v>
+        <v>228478</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7678994513589883</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.713633254173103</v>
+        <v>0.7169473922446122</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8183248963803926</v>
+        <v>0.8159032967968604</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>375</v>
@@ -5014,19 +5014,19 @@
         <v>396869</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>374945</v>
+        <v>372302</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>418210</v>
+        <v>417400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7188204185410603</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6791112667032092</v>
+        <v>0.6743238938045997</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7574739667135214</v>
+        <v>0.7560070407110229</v>
       </c>
     </row>
     <row r="25">
@@ -5043,19 +5043,19 @@
         <v>86308</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72507</v>
+        <v>72893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103278</v>
+        <v>103927</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.317215150476765</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2664925239194676</v>
+        <v>0.2679108535894595</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3795869521618336</v>
+        <v>0.3819712260712171</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -5064,19 +5064,19 @@
         <v>60272</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46819</v>
+        <v>47794</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74478</v>
+        <v>75348</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2152349901210508</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1671905223629532</v>
+        <v>0.1706749139007698</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2659637476019108</v>
+        <v>0.2690707609086385</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -5085,19 +5085,19 @@
         <v>146580</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125795</v>
+        <v>125830</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>167632</v>
+        <v>170972</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2654907186751496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.227843973347011</v>
+        <v>0.227907802541011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3036202125881343</v>
+        <v>0.3096703402070328</v>
       </c>
     </row>
     <row r="26">
@@ -5114,19 +5114,19 @@
         <v>3939</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9154</v>
+        <v>10046</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01447777859283484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003553427242837118</v>
+        <v>0.003641724651780919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03364493898392328</v>
+        <v>0.03692404976418946</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -5135,19 +5135,19 @@
         <v>4723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>982</v>
+        <v>1712</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12055</v>
+        <v>12468</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01686555851996087</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003505398656410463</v>
+        <v>0.006113353363339931</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04304773444655964</v>
+        <v>0.04452333634258711</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -5156,19 +5156,19 @@
         <v>8662</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3926</v>
+        <v>3931</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16774</v>
+        <v>18408</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01568886278379018</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007110129857451818</v>
+        <v>0.007120429631088275</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03038132881894046</v>
+        <v>0.03334075951290499</v>
       </c>
     </row>
     <row r="27">
@@ -5260,19 +5260,19 @@
         <v>490804</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>469045</v>
+        <v>467158</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>515082</v>
+        <v>512344</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7438310082054052</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7108548019449163</v>
+        <v>0.7079955968393962</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7806255711258073</v>
+        <v>0.7764769061955941</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>494</v>
@@ -5281,19 +5281,19 @@
         <v>541826</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>516487</v>
+        <v>518495</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>561991</v>
+        <v>563792</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7844837068302425</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.747796484328794</v>
+        <v>0.7507042208042155</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8136799393686727</v>
+        <v>0.8162876580656369</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>943</v>
@@ -5302,19 +5302,19 @@
         <v>1032629</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>997561</v>
+        <v>995841</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1061552</v>
+        <v>1061684</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7646216142448125</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7386546756045526</v>
+        <v>0.7373811345717145</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.786038102691721</v>
+        <v>0.786135376405483</v>
       </c>
     </row>
     <row r="29">
@@ -5331,19 +5331,19 @@
         <v>162903</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>139023</v>
+        <v>141412</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>183783</v>
+        <v>187501</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2468863009371083</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2106951211439032</v>
+        <v>0.2143146356473838</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2785296142796163</v>
+        <v>0.2841650213541579</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>128</v>
@@ -5352,19 +5352,19 @@
         <v>137527</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>118938</v>
+        <v>116169</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>162218</v>
+        <v>160519</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1991185234383708</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1722050253252591</v>
+        <v>0.1681959300402092</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.23486806765954</v>
+        <v>0.2324074819695699</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>288</v>
@@ -5373,19 +5373,19 @@
         <v>300430</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>271473</v>
+        <v>271489</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>334279</v>
+        <v>334697</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2224569007509284</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2010149015875676</v>
+        <v>0.2010269069468789</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2475207801928614</v>
+        <v>0.2478301800207688</v>
       </c>
     </row>
     <row r="30">
@@ -5402,19 +5402,19 @@
         <v>6125</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2284</v>
+        <v>2351</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12638</v>
+        <v>12439</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009282690857486521</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003461706579203753</v>
+        <v>0.003563290966348512</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01915346526115815</v>
+        <v>0.01885102400966555</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -5423,19 +5423,19 @@
         <v>11326</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5171</v>
+        <v>5473</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19001</v>
+        <v>19448</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01639776973138679</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007486583246982171</v>
+        <v>0.007923925668632009</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02751115596573003</v>
+        <v>0.02815753733062978</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>17</v>
@@ -5444,19 +5444,19 @@
         <v>17451</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10435</v>
+        <v>10403</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>27297</v>
+        <v>27392</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01292148500425916</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.007726868252964543</v>
+        <v>0.007703002736609359</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02021249225074397</v>
+        <v>0.02028286701092738</v>
       </c>
     </row>
     <row r="31">
@@ -5548,19 +5548,19 @@
         <v>711235</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>694561</v>
+        <v>694728</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>723738</v>
+        <v>723677</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9242700846889088</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9026023041458167</v>
+        <v>0.9028183871528574</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9405179370018021</v>
+        <v>0.9404383351719477</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>691</v>
@@ -5569,19 +5569,19 @@
         <v>755348</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>738480</v>
+        <v>739824</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>768628</v>
+        <v>768897</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9275423875262664</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9068289878684997</v>
+        <v>0.9084793864792757</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9438502613514173</v>
+        <v>0.9441806612764426</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1343</v>
@@ -5590,19 +5590,19 @@
         <v>1466583</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1446367</v>
+        <v>1444096</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1485118</v>
+        <v>1484973</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.925952560667288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9131885890459874</v>
+        <v>0.9117548038767981</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9376548935374991</v>
+        <v>0.9375636078335694</v>
       </c>
     </row>
     <row r="33">
@@ -5619,19 +5619,19 @@
         <v>56246</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>44016</v>
+        <v>43785</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>73425</v>
+        <v>72577</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07309280130375997</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05720059752181941</v>
+        <v>0.05690032241348591</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09541778699650311</v>
+        <v>0.09431546032204215</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>51</v>
@@ -5640,19 +5640,19 @@
         <v>52823</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>40440</v>
+        <v>40321</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>69991</v>
+        <v>68195</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06486465040569346</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04965953984556952</v>
+        <v>0.04951262561349327</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08594710284431431</v>
+        <v>0.08374078069716963</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>105</v>
@@ -5661,19 +5661,19 @@
         <v>109068</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>90762</v>
+        <v>91554</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>128466</v>
+        <v>130599</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06886224352211694</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05730446180313566</v>
+        <v>0.05780425000142837</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0811090715195715</v>
+        <v>0.08245584816493956</v>
       </c>
     </row>
     <row r="34">
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7104</v>
+        <v>7150</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002637114007331172</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.009232497493099135</v>
+        <v>0.00929163006822311</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -5711,19 +5711,19 @@
         <v>6183</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2122</v>
+        <v>2146</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12642</v>
+        <v>13524</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007592962068040109</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002605807872570804</v>
+        <v>0.002635068644964801</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01552451651913786</v>
+        <v>0.01660753929434098</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -5732,19 +5732,19 @@
         <v>8213</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4069</v>
+        <v>4044</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>15647</v>
+        <v>15295</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005185195810595064</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002569274547172751</v>
+        <v>0.002553151624876402</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009879185542354098</v>
+        <v>0.009656911407603433</v>
       </c>
     </row>
     <row r="35">
@@ -5836,19 +5836,19 @@
         <v>2801142</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2754857</v>
+        <v>2751638</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2842296</v>
+        <v>2847861</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8240962269944666</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8104791590362596</v>
+        <v>0.8095322714361195</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8362038102154329</v>
+        <v>0.8378409416792661</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2817</v>
@@ -5857,19 +5857,19 @@
         <v>3048737</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3008571</v>
+        <v>3004396</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3090803</v>
+        <v>3089064</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.865276066381469</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8538764185983738</v>
+        <v>0.8526914960056646</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8772149067998175</v>
+        <v>0.8767213704770289</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5416</v>
@@ -5878,19 +5878,19 @@
         <v>5849880</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5785672</v>
+        <v>5787001</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5908658</v>
+        <v>5910340</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8450560964739653</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8357808671514214</v>
+        <v>0.8359728622811996</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8535470719546151</v>
+        <v>0.8537900674715123</v>
       </c>
     </row>
     <row r="37">
@@ -5907,19 +5907,19 @@
         <v>553893</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>513822</v>
+        <v>510064</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>600327</v>
+        <v>597433</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1629554196155028</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1511666249108851</v>
+        <v>0.1500608398341291</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1766162226127613</v>
+        <v>0.1757647683585415</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>395</v>
@@ -5928,19 +5928,19 @@
         <v>418430</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>378229</v>
+        <v>378415</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>456570</v>
+        <v>458373</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1187564873483247</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1073469266313235</v>
+        <v>0.1073997454621894</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.129581320155509</v>
+        <v>0.1300930462070378</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>936</v>
@@ -5949,19 +5949,19 @@
         <v>972323</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>917411</v>
+        <v>914748</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1032542</v>
+        <v>1033233</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1404588808906418</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1325264640453905</v>
+        <v>0.1321416972654798</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1491578952323427</v>
+        <v>0.1492576719085045</v>
       </c>
     </row>
     <row r="38">
@@ -5978,19 +5978,19 @@
         <v>44012</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>31588</v>
+        <v>32061</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>59959</v>
+        <v>58654</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01294835339003059</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.009293137798313597</v>
+        <v>0.009432288946130483</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01764000730047602</v>
+        <v>0.01725590317841286</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>53</v>
@@ -5999,19 +5999,19 @@
         <v>56260</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>42724</v>
+        <v>43265</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>72848</v>
+        <v>75374</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01596744627020621</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01212559402864551</v>
+        <v>0.01227934980928889</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02067531596091173</v>
+        <v>0.0213921967501156</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>95</v>
@@ -6020,19 +6020,19 @@
         <v>100272</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>80705</v>
+        <v>81381</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>121835</v>
+        <v>120368</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01448502263539287</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0116583955532987</v>
+        <v>0.01175603973126024</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01759998271478757</v>
+        <v>0.01738793818340759</v>
       </c>
     </row>
     <row r="39">
@@ -6368,19 +6368,19 @@
         <v>236327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219852</v>
+        <v>221126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250155</v>
+        <v>250269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8044864796702345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7484028448237138</v>
+        <v>0.7527410746037969</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8515583147634568</v>
+        <v>0.8519462951325719</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>234</v>
@@ -6389,19 +6389,19 @@
         <v>245981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>233285</v>
+        <v>233536</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256319</v>
+        <v>256827</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8547144827384868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8106007776766128</v>
+        <v>0.8114718225123037</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8906351026386904</v>
+        <v>0.8924008672324942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>449</v>
@@ -6410,19 +6410,19 @@
         <v>482308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>463610</v>
+        <v>461237</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>499149</v>
+        <v>499090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8293427509023517</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7971918814552242</v>
+        <v>0.7931118948258394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8583014936463114</v>
+        <v>0.8582011182613184</v>
       </c>
     </row>
     <row r="5">
@@ -6439,19 +6439,19 @@
         <v>47711</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35738</v>
+        <v>35076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63910</v>
+        <v>62351</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1624151681536926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1216559590245887</v>
+        <v>0.119401570963106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2175580356870935</v>
+        <v>0.212251340433357</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -6460,19 +6460,19 @@
         <v>34663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24837</v>
+        <v>24682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46319</v>
+        <v>46965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.120443518687091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08630217544770126</v>
+        <v>0.08576153288458915</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.160945403812324</v>
+        <v>0.1631902073223488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -6481,19 +6481,19 @@
         <v>82374</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67368</v>
+        <v>66809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100110</v>
+        <v>101456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1416447086595423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1158414697326893</v>
+        <v>0.1148808842167659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1721420402701618</v>
+        <v>0.1744566336718107</v>
       </c>
     </row>
     <row r="6">
@@ -6510,19 +6510,19 @@
         <v>9723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4547</v>
+        <v>4753</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19615</v>
+        <v>19118</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03309835217607292</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0154788110911399</v>
+        <v>0.01617846033769774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06677321560068224</v>
+        <v>0.06507933037904971</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -6531,19 +6531,19 @@
         <v>7149</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3210</v>
+        <v>2847</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15402</v>
+        <v>13999</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02484199857442215</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01115293054705252</v>
+        <v>0.00989386574126404</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05351826916329715</v>
+        <v>0.04864318796963086</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -6552,19 +6552,19 @@
         <v>16872</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9915</v>
+        <v>9620</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27059</v>
+        <v>28531</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0290125404381061</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01704884340567688</v>
+        <v>0.01654207142306582</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04652943305082403</v>
+        <v>0.04906039745169562</v>
       </c>
     </row>
     <row r="7">
@@ -6656,19 +6656,19 @@
         <v>434808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>417571</v>
+        <v>417875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>448219</v>
+        <v>448096</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8724464897377118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8378592961803167</v>
+        <v>0.8384708828051003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8993564767177603</v>
+        <v>0.8991084528277713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>407</v>
@@ -6677,19 +6677,19 @@
         <v>444626</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>428034</v>
+        <v>426798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459241</v>
+        <v>459941</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8535897884443812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8217358599695276</v>
+        <v>0.8193623465967207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.881646294482105</v>
+        <v>0.8829903892681208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>816</v>
@@ -6698,19 +6698,19 @@
         <v>879435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858024</v>
+        <v>856085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>901282</v>
+        <v>898708</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8628098970564307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8418042960289679</v>
+        <v>0.8399016954515861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8842439923454576</v>
+        <v>0.8817192657212634</v>
       </c>
     </row>
     <row r="9">
@@ -6727,19 +6727,19 @@
         <v>60711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47395</v>
+        <v>47702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77106</v>
+        <v>78274</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1218179318705761</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09509842219347721</v>
+        <v>0.09571359072059864</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1547134386817104</v>
+        <v>0.1570567261564203</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>69</v>
@@ -6748,19 +6748,19 @@
         <v>70341</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56790</v>
+        <v>55002</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>87526</v>
+        <v>86965</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1350400687737598</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1090240151161026</v>
+        <v>0.1055921578088257</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1680318849854149</v>
+        <v>0.1669549846272184</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>128</v>
@@ -6769,19 +6769,19 @@
         <v>131052</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>110706</v>
+        <v>112025</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>151496</v>
+        <v>155086</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1285750176264597</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1086133468852306</v>
+        <v>0.1099070820969871</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1486316942182806</v>
+        <v>0.1521539424734144</v>
       </c>
     </row>
     <row r="10">
@@ -6798,19 +6798,19 @@
         <v>2858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8004</v>
+        <v>7407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005735578391712163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001741489726706063</v>
+        <v>0.00173080166166269</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01606065163775602</v>
+        <v>0.01486262611131136</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -6819,19 +6819,19 @@
         <v>5923</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2764</v>
+        <v>2104</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12053</v>
+        <v>12622</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01137014278185905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005306750762947331</v>
+        <v>0.004039341793450098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02313942655555255</v>
+        <v>0.02423073426909305</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -6840,19 +6840,19 @@
         <v>8781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4002</v>
+        <v>3939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15280</v>
+        <v>16180</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00861508531710958</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003926629952328455</v>
+        <v>0.003864758716464453</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01499069692603624</v>
+        <v>0.01587448895250415</v>
       </c>
     </row>
     <row r="11">
@@ -6944,19 +6944,19 @@
         <v>286736</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>274343</v>
+        <v>274858</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>295099</v>
+        <v>295299</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9091574826476725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8698632527107216</v>
+        <v>0.8714970125136088</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9356764002275679</v>
+        <v>0.9363109361658772</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>286</v>
@@ -6965,19 +6965,19 @@
         <v>291675</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>280187</v>
+        <v>277858</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>301805</v>
+        <v>302591</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8757118582557625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8412208008041369</v>
+        <v>0.8342280533774279</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.906126846009826</v>
+        <v>0.9084862877526069</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>589</v>
@@ -6986,19 +6986,19 @@
         <v>578411</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>561270</v>
+        <v>562911</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>592155</v>
+        <v>593639</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8919785862800992</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8655461973698334</v>
+        <v>0.8680759210806047</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9131732557943526</v>
+        <v>0.9154628908446399</v>
       </c>
     </row>
     <row r="13">
@@ -7015,19 +7015,19 @@
         <v>27785</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19547</v>
+        <v>19383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40108</v>
+        <v>39215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08809944089589315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06197784027236784</v>
+        <v>0.06145646543594842</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1271725601157297</v>
+        <v>0.1243411294016911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -7036,19 +7036,19 @@
         <v>41397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31267</v>
+        <v>30481</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52885</v>
+        <v>55214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1242881417442375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09387315399017419</v>
+        <v>0.0915137122473931</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1587791991958633</v>
+        <v>0.1657719466225721</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -7057,19 +7057,19 @@
         <v>69182</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54696</v>
+        <v>54070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86402</v>
+        <v>84932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1066872816928255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08434714859034208</v>
+        <v>0.08338231675310646</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1332423114152047</v>
+        <v>0.1309752750205946</v>
       </c>
     </row>
     <row r="14">
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4979</v>
+        <v>5173</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002743076456434314</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0157884597858336</v>
+        <v>0.01640294867035485</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4343</v>
+        <v>4780</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001334132027075304</v>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006697341607184342</v>
+        <v>0.007371366070672653</v>
       </c>
     </row>
     <row r="15">
@@ -7224,19 +7224,19 @@
         <v>318329</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>304633</v>
+        <v>304619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>331107</v>
+        <v>331108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8626847925537633</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8255688025758406</v>
+        <v>0.825530090696555</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.897313738184088</v>
+        <v>0.897317609341278</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -7245,19 +7245,19 @@
         <v>341385</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>328687</v>
+        <v>326856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352922</v>
+        <v>352382</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.885853364151307</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8529046679250952</v>
+        <v>0.8481532135439687</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.915790822620634</v>
+        <v>0.9143906950748368</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>619</v>
@@ -7266,19 +7266,19 @@
         <v>659714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>640403</v>
+        <v>637029</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>676643</v>
+        <v>675378</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8745205595332116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8489215115480823</v>
+        <v>0.8444492057107255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8969625200372305</v>
+        <v>0.895284690811937</v>
       </c>
     </row>
     <row r="17">
@@ -7295,19 +7295,19 @@
         <v>46846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34745</v>
+        <v>34782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61302</v>
+        <v>60440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1269552292462498</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09416159652043192</v>
+        <v>0.09426173088156269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1661322230814728</v>
+        <v>0.1637958961721731</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -7316,19 +7316,19 @@
         <v>33807</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24029</v>
+        <v>24058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45851</v>
+        <v>47237</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08772508741380398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06235201500806861</v>
+        <v>0.06242802412257518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1189769108994108</v>
+        <v>0.1225750621561681</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -7337,19 +7337,19 @@
         <v>80653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64902</v>
+        <v>65863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>99000</v>
+        <v>103433</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.106914338277004</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08603425648433678</v>
+        <v>0.08730898536824204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.131235422621298</v>
+        <v>0.1371112723691867</v>
       </c>
     </row>
     <row r="18">
@@ -7366,19 +7366,19 @@
         <v>3823</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>981</v>
+        <v>963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8891</v>
+        <v>9684</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01035997819998694</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002658383181768669</v>
+        <v>0.002609395044008716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02409454772173077</v>
+        <v>0.02624319538959128</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -7387,19 +7387,19 @@
         <v>10182</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5269</v>
+        <v>4790</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17771</v>
+        <v>17487</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02642154843488907</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01367253134541166</v>
+        <v>0.01242905647992376</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04611301824285013</v>
+        <v>0.04537590180863942</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -7408,19 +7408,19 @@
         <v>14005</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8168</v>
+        <v>7988</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23408</v>
+        <v>22975</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01856510218978438</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0108273754498277</v>
+        <v>0.01058863805604083</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03102913459277467</v>
+        <v>0.03045581895210833</v>
       </c>
     </row>
     <row r="19">
@@ -7512,19 +7512,19 @@
         <v>204004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196668</v>
+        <v>196810</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208330</v>
+        <v>208358</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9658320529382933</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9310998423332526</v>
+        <v>0.9317751264808117</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9863113341815557</v>
+        <v>0.9864436464162853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>222</v>
@@ -7533,7 +7533,7 @@
         <v>217760</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214447</v>
+        <v>214389</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>218587</v>
@@ -7542,7 +7542,7 @@
         <v>0.9962177366547768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9810621996606849</v>
+        <v>0.9807948018211103</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7554,19 +7554,19 @@
         <v>421764</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>414298</v>
+        <v>413716</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>426110</v>
+        <v>426160</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9812852680330391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9639133270815307</v>
+        <v>0.9625593984392639</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9913953214443004</v>
+        <v>0.9915119392165019</v>
       </c>
     </row>
     <row r="21">
@@ -7583,19 +7583,19 @@
         <v>7217</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2891</v>
+        <v>2863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14553</v>
+        <v>14411</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03416794706170671</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01368866581844434</v>
+        <v>0.01355635358371459</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06890015766674737</v>
+        <v>0.06822487351918821</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4140</v>
+        <v>4198</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003782263345223203</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0189378003393152</v>
+        <v>0.0192051981788897</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -7625,19 +7625,19 @@
         <v>8044</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3698</v>
+        <v>3648</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15510</v>
+        <v>16092</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01871473196696092</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008604678555699614</v>
+        <v>0.008488060783498072</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03608667291846935</v>
+        <v>0.03744060156073616</v>
       </c>
     </row>
     <row r="22">
@@ -7776,19 +7776,19 @@
         <v>256144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>249760</v>
+        <v>248779</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>260099</v>
+        <v>259266</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9770815242346717</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9527299595711298</v>
+        <v>0.9489872406385945</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9921694509854424</v>
+        <v>0.9889897881308328</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>251</v>
@@ -7797,19 +7797,19 @@
         <v>261070</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>252529</v>
+        <v>252723</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>266242</v>
+        <v>266342</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9594521181751249</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.92806271128532</v>
+        <v>0.9287785044391708</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9784599164173247</v>
+        <v>0.9788260895967388</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>503</v>
@@ -7818,19 +7818,19 @@
         <v>517214</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>507167</v>
+        <v>507326</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>523668</v>
+        <v>524009</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9681026513160214</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9492984210507043</v>
+        <v>0.9495946139535504</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.980183508788949</v>
+        <v>0.9808217629577174</v>
       </c>
     </row>
     <row r="25">
@@ -7847,19 +7847,19 @@
         <v>4000</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10055</v>
+        <v>11058</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01525775859047723</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003947656147448705</v>
+        <v>0.004053908213118895</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03835492945012049</v>
+        <v>0.04218329145233173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7868,19 +7868,19 @@
         <v>6057</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11805</v>
+        <v>12030</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02226097901491702</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007423743663798847</v>
+        <v>0.00745097005219054</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04338271659268551</v>
+        <v>0.04420966140752689</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -7889,19 +7889,19 @@
         <v>10057</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4575</v>
+        <v>5116</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17563</v>
+        <v>18799</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01882458472176879</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008563379505019326</v>
+        <v>0.009575443683674663</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03287459789359372</v>
+        <v>0.0351868531093566</v>
       </c>
     </row>
     <row r="26">
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7057</v>
+        <v>7085</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007660717174851133</v>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02692063418730839</v>
+        <v>0.02702625045746748</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -7939,19 +7939,19 @@
         <v>4976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1936</v>
+        <v>1892</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12033</v>
+        <v>11037</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01828690280995812</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007115671732430729</v>
+        <v>0.006955056414540522</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04422315297521736</v>
+        <v>0.04056166167147674</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -7960,19 +7960,19 @@
         <v>6984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2981</v>
+        <v>2903</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14637</v>
+        <v>13594</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01307276396220989</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00557908178302269</v>
+        <v>0.005433552931224887</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02739660158815561</v>
+        <v>0.02544473643862641</v>
       </c>
     </row>
     <row r="27">
@@ -8064,19 +8064,19 @@
         <v>551459</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>530022</v>
+        <v>531494</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>569845</v>
+        <v>569618</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8561630706788036</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8228812753994931</v>
+        <v>0.8251660363673238</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.884707642502499</v>
+        <v>0.8843552615419678</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>527</v>
@@ -8085,19 +8085,19 @@
         <v>567894</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>548528</v>
+        <v>548901</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>585133</v>
+        <v>585599</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8381748511029186</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8095918111346603</v>
+        <v>0.8101413855587236</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8636171675594938</v>
+        <v>0.8643057280206485</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1017</v>
@@ -8106,19 +8106,19 @@
         <v>1119353</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1091824</v>
+        <v>1090215</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1143779</v>
+        <v>1143467</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8469414433939849</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8261114163848359</v>
+        <v>0.82489418023404</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.865422743290894</v>
+        <v>0.8651867221612159</v>
       </c>
     </row>
     <row r="29">
@@ -8135,19 +8135,19 @@
         <v>84941</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67760</v>
+        <v>69436</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>104955</v>
+        <v>106065</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1318748506866613</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1052002957239757</v>
+        <v>0.1078030189680425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1629468260198873</v>
+        <v>0.1646705045243166</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>103</v>
@@ -8156,19 +8156,19 @@
         <v>104731</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>87499</v>
+        <v>87379</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>124680</v>
+        <v>122597</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1545764706646794</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.129142200842919</v>
+        <v>0.1289654438620195</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1840188022950645</v>
+        <v>0.1809444437086544</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>176</v>
@@ -8177,19 +8177,19 @@
         <v>189673</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>166428</v>
+        <v>162779</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>215823</v>
+        <v>216863</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1435127939147685</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1259252852532161</v>
+        <v>0.1231643160867765</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.16329880203959</v>
+        <v>0.164085749950803</v>
       </c>
     </row>
     <row r="30">
@@ -8206,19 +8206,19 @@
         <v>7705</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2891</v>
+        <v>3015</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16193</v>
+        <v>16377</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01196207863453509</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004488740805120593</v>
+        <v>0.004681457663691402</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02513957989924936</v>
+        <v>0.02542572399700982</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -8227,19 +8227,19 @@
         <v>4911</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1035</v>
+        <v>1176</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11782</v>
+        <v>11809</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00724867823240203</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00152784684959108</v>
+        <v>0.001735145766219158</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0173888045659718</v>
+        <v>0.01742892867170025</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -8248,19 +8248,19 @@
         <v>12616</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6362</v>
+        <v>5692</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23600</v>
+        <v>23171</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00954576269124657</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004813400402424127</v>
+        <v>0.004306615700646965</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01785683719592284</v>
+        <v>0.01753184827512944</v>
       </c>
     </row>
     <row r="31">
@@ -8352,19 +8352,19 @@
         <v>624311</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>602005</v>
+        <v>600789</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>644700</v>
+        <v>645508</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8094577515230944</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7805368953122683</v>
+        <v>0.7789598127624769</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.835892473127181</v>
+        <v>0.8369402408628861</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>612</v>
@@ -8373,19 +8373,19 @@
         <v>670371</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>647875</v>
+        <v>645980</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>691949</v>
+        <v>692192</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8146914783389175</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7873526996401863</v>
+        <v>0.7850501652899148</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8409160865659236</v>
+        <v>0.8412110003571976</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1213</v>
@@ -8394,19 +8394,19 @@
         <v>1294682</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1263551</v>
+        <v>1263526</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1326920</v>
+        <v>1326107</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8121592884525956</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7926305863092037</v>
+        <v>0.7926148158255143</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8323826540453095</v>
+        <v>0.831872448643232</v>
       </c>
     </row>
     <row r="33">
@@ -8423,19 +8423,19 @@
         <v>143139</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>123088</v>
+        <v>122647</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>165042</v>
+        <v>166406</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1855882604582802</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1595904834477854</v>
+        <v>0.159019815812883</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2139870020438592</v>
+        <v>0.2157554185949243</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>135</v>
@@ -8444,19 +8444,19 @@
         <v>146100</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>124461</v>
+        <v>123348</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>169404</v>
+        <v>168756</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1775528700186599</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1512551903579008</v>
+        <v>0.1499027110720755</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2058747620018251</v>
+        <v>0.2050869938453552</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>273</v>
@@ -8465,19 +8465,19 @@
         <v>289239</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>257518</v>
+        <v>257356</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>319982</v>
+        <v>320625</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1814405651773639</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1615421482772574</v>
+        <v>0.161440333114709</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2007260378155238</v>
+        <v>0.201129554680706</v>
       </c>
     </row>
     <row r="34">
@@ -8494,19 +8494,19 @@
         <v>3821</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8913</v>
+        <v>9792</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.004953988018625458</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00123632910741916</v>
+        <v>0.001241072115525258</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01155655180012679</v>
+        <v>0.01269550878718962</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -8515,19 +8515,19 @@
         <v>6382</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2309</v>
+        <v>2125</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13333</v>
+        <v>12708</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.007755651642422596</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002806232528025015</v>
+        <v>0.002582749450970077</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01620326043170469</v>
+        <v>0.0154432852633919</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -8536,19 +8536,19 @@
         <v>10203</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5122</v>
+        <v>5008</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18194</v>
+        <v>18406</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006400146370040588</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003213084869501927</v>
+        <v>0.003141285069710047</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01141297681143362</v>
+        <v>0.01154617271072973</v>
       </c>
     </row>
     <row r="35">
@@ -8640,19 +8640,19 @@
         <v>2912118</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2869700</v>
+        <v>2873542</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2950750</v>
+        <v>2954204</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.865343878881221</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8527394248524789</v>
+        <v>0.8538810718422227</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8768235010284472</v>
+        <v>0.8778498448834341</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2852</v>
@@ -8661,19 +8661,19 @@
         <v>3040762</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2999024</v>
+        <v>2995853</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3078400</v>
+        <v>3079536</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8642928943842599</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8524295368410442</v>
+        <v>0.8515281164142305</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8749909484441296</v>
+        <v>0.8753136911227466</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5633</v>
@@ -8682,19 +8682,19 @@
         <v>5952880</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5895039</v>
+        <v>5887136</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6008296</v>
+        <v>6005178</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8648067113364836</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8564038678092724</v>
+        <v>0.8552557583528133</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8728572733208421</v>
+        <v>0.8724043597793661</v>
       </c>
     </row>
     <row r="37">
@@ -8711,19 +8711,19 @@
         <v>422351</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>385239</v>
+        <v>381299</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>460895</v>
+        <v>459639</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1255028037162237</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.114474839136572</v>
+        <v>0.1133039396750497</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1369562686319775</v>
+        <v>0.1365831417527266</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>425</v>
@@ -8732,19 +8732,19 @@
         <v>437923</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>399195</v>
+        <v>397031</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>477885</v>
+        <v>478715</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1244732463804969</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1134655133254803</v>
+        <v>0.1128503676129982</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1358319605861917</v>
+        <v>0.136067941502483</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>820</v>
@@ -8753,19 +8753,19 @@
         <v>860274</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>804554</v>
+        <v>805881</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>914537</v>
+        <v>919396</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1249765877845921</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.116881931419496</v>
+        <v>0.1170746904492276</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1328596817914605</v>
+        <v>0.1335656215522734</v>
       </c>
     </row>
     <row r="38">
@@ -8782,19 +8782,19 @@
         <v>30803</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>20097</v>
+        <v>21265</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>43564</v>
+        <v>44987</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.009153317402555273</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.005971911731572114</v>
+        <v>0.006318888625367748</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01294518920901509</v>
+        <v>0.01336794675497199</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>38</v>
@@ -8803,19 +8803,19 @@
         <v>39523</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>28701</v>
+        <v>28204</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>54185</v>
+        <v>53221</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01123385923524316</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.008157800721403045</v>
+        <v>0.008016698954558013</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01540130121006203</v>
+        <v>0.01512733970932975</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>66</v>
@@ -8824,19 +8824,19 @@
         <v>70326</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>54398</v>
+        <v>54955</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>89256</v>
+        <v>89851</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01021670087892437</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.007902657592385367</v>
+        <v>0.007983640461477771</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01296672821864899</v>
+        <v>0.01305308834307417</v>
       </c>
     </row>
     <row r="39">
@@ -9185,16 +9185,16 @@
         <v>315568</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>313000</v>
+        <v>313721</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>316061</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9984414711426228</v>
+        <v>0.998441471142623</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9903152113829804</v>
+        <v>0.9925973280976679</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -9206,7 +9206,7 @@
         <v>634413</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>632374</v>
+        <v>632645</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>634906</v>
@@ -9215,7 +9215,7 @@
         <v>0.9992241533523573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9960117190032397</v>
+        <v>0.9964390616407593</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3061</v>
+        <v>2340</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001558528857377025</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.009684788617019664</v>
+        <v>0.007402671902331603</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2532</v>
+        <v>2261</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0007758466476427921</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.003988280996760241</v>
+        <v>0.003560938359240165</v>
       </c>
     </row>
     <row r="6">
@@ -9420,19 +9420,19 @@
         <v>438525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414068</v>
+        <v>415354</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459974</v>
+        <v>460113</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8285143771746121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7823075528363146</v>
+        <v>0.7847370645063984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8690372211733034</v>
+        <v>0.8693008606125389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>613</v>
@@ -9441,19 +9441,19 @@
         <v>461076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>444172</v>
+        <v>443788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>474863</v>
+        <v>477390</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8446381171793951</v>
+        <v>0.8446381171793949</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8136710523914036</v>
+        <v>0.8129684563051569</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8698942808571364</v>
+        <v>0.8745235482284863</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>938</v>
@@ -9462,19 +9462,19 @@
         <v>899601</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>869799</v>
+        <v>869590</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>926899</v>
+        <v>925730</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8367006812481044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8089822110550386</v>
+        <v>0.8087873211054637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8620892666270167</v>
+        <v>0.8610027456073701</v>
       </c>
     </row>
     <row r="9">
@@ -9491,19 +9491,19 @@
         <v>68405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49473</v>
+        <v>50003</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>90242</v>
+        <v>91200</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1292385469214306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0934711192936401</v>
+        <v>0.09447157119380335</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1704954966753938</v>
+        <v>0.1723060379868425</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>70</v>
@@ -9512,19 +9512,19 @@
         <v>59216</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47328</v>
+        <v>45630</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>74086</v>
+        <v>74569</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.108477169253949</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08669968220963215</v>
+        <v>0.0835894744517609</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1357168639187193</v>
+        <v>0.1366020813294599</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>111</v>
@@ -9533,19 +9533,19 @@
         <v>127621</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>104050</v>
+        <v>104262</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>154468</v>
+        <v>152786</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1186976333046023</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09677501427855083</v>
+        <v>0.09697194130949077</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1436678167898683</v>
+        <v>0.142103500882991</v>
       </c>
     </row>
     <row r="10">
@@ -9562,19 +9562,19 @@
         <v>22361</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12772</v>
+        <v>12684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36149</v>
+        <v>37482</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04224707590395736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02413093177706069</v>
+        <v>0.02396354937409292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06829771196265942</v>
+        <v>0.07081541595049982</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -9583,19 +9583,19 @@
         <v>25594</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17733</v>
+        <v>18009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36247</v>
+        <v>36336</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04688471356665608</v>
+        <v>0.04688471356665609</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03248555303344273</v>
+        <v>0.03299067771976204</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06639980714803924</v>
+        <v>0.06656397614305128</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -9604,19 +9604,19 @@
         <v>47955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34547</v>
+        <v>35834</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64843</v>
+        <v>65687</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04460168544729344</v>
+        <v>0.04460168544729345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03213183370027162</v>
+        <v>0.03332872615522749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06030955258379796</v>
+        <v>0.06109378255587358</v>
       </c>
     </row>
     <row r="11">
@@ -9708,19 +9708,19 @@
         <v>293779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>283831</v>
+        <v>283023</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>301766</v>
+        <v>301015</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9314958701146436</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8999525081172695</v>
+        <v>0.8973927547955109</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9568199446879001</v>
+        <v>0.9544396668082019</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>506</v>
@@ -9729,19 +9729,19 @@
         <v>329687</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>318631</v>
+        <v>318544</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>338372</v>
+        <v>338802</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9250966973383798</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8940753322105697</v>
+        <v>0.8938298066960078</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9494670718300253</v>
+        <v>0.95067345773671</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>844</v>
@@ -9750,19 +9750,19 @@
         <v>623466</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>609294</v>
+        <v>608793</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>636132</v>
+        <v>634594</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9281010134804411</v>
+        <v>0.9281010134804412</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9070049254148733</v>
+        <v>0.906258717847737</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9469555563793789</v>
+        <v>0.9446662981827147</v>
       </c>
     </row>
     <row r="13">
@@ -9779,19 +9779,19 @@
         <v>21605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13618</v>
+        <v>14369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31553</v>
+        <v>32361</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06850412988535637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04318005531209989</v>
+        <v>0.04556033319179814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1000474918827306</v>
+        <v>0.1026072452044892</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -9800,19 +9800,19 @@
         <v>24426</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16424</v>
+        <v>15734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35832</v>
+        <v>35192</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06854033236802654</v>
+        <v>0.06854033236802655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04608504194998221</v>
+        <v>0.0441491310383994</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1005439429192532</v>
+        <v>0.09874906591233186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -9821,19 +9821,19 @@
         <v>46032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33407</v>
+        <v>35434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59596</v>
+        <v>60220</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0685233358425581</v>
+        <v>0.06852333584255811</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04973034572846425</v>
+        <v>0.05274730135413279</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0887159524786926</v>
+        <v>0.08964397935834618</v>
       </c>
     </row>
     <row r="14">
@@ -9866,16 +9866,16 @@
         <v>642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6771</v>
+        <v>6757</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006362970293593721</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001801741412753741</v>
+        <v>0.001802514029147263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01899973597697581</v>
+        <v>0.01895870022068796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -9884,19 +9884,19 @@
         <v>2268</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6295</v>
+        <v>6078</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.003375650677000824</v>
+        <v>0.003375650677000825</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009577127789877491</v>
+        <v>0.0009654316014487009</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009371297811479679</v>
+        <v>0.009047485544509196</v>
       </c>
     </row>
     <row r="15">
@@ -9988,19 +9988,19 @@
         <v>315866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>294567</v>
+        <v>293046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>333589</v>
+        <v>332073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8521862202316827</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7947230995532475</v>
+        <v>0.7906189880842304</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9000022223478742</v>
+        <v>0.8959122388593536</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>533</v>
@@ -10009,19 +10009,19 @@
         <v>374943</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>362499</v>
+        <v>362359</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385301</v>
+        <v>384828</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8885719544590485</v>
+        <v>0.8885719544590486</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8590819276264448</v>
+        <v>0.8587497107673633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9131200088182267</v>
+        <v>0.9119987950080575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>786</v>
@@ -10030,19 +10030,19 @@
         <v>690810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>666657</v>
+        <v>661326</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>711679</v>
+        <v>711504</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8715567346809703</v>
+        <v>0.8715567346809704</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8410842993199165</v>
+        <v>0.8343581686068411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8978859398515479</v>
+        <v>0.8976657248269954</v>
       </c>
     </row>
     <row r="17">
@@ -10059,19 +10059,19 @@
         <v>49916</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33287</v>
+        <v>34017</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71929</v>
+        <v>72907</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1346703677116644</v>
+        <v>0.1346703677116645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08980689312054041</v>
+        <v>0.09177470138064285</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1940586323669675</v>
+        <v>0.196699330145698</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -10080,19 +10080,19 @@
         <v>44990</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35261</v>
+        <v>35387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57467</v>
+        <v>57841</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1066216491663968</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08356423998217297</v>
+        <v>0.08386438297203816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1361900201364103</v>
+        <v>0.1370756379701728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -10101,19 +10101,19 @@
         <v>94906</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74068</v>
+        <v>74836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>118222</v>
+        <v>123517</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1197381938967829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09344792329808455</v>
+        <v>0.09441625317439443</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1491547477141566</v>
+        <v>0.1558343082011002</v>
       </c>
     </row>
     <row r="18">
@@ -10130,19 +10130,19 @@
         <v>4872</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1404</v>
+        <v>1563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11280</v>
+        <v>11029</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01314341205665289</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003789204499074549</v>
+        <v>0.004216751775209626</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03043181905634653</v>
+        <v>0.02975463824761514</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -10151,19 +10151,19 @@
         <v>2028</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6018</v>
+        <v>5677</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.004806396374554782</v>
+        <v>0.004806396374554783</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001010440018279063</v>
+        <v>0.001021490316616203</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01426110411866099</v>
+        <v>0.0134541535345667</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -10172,19 +10172,19 @@
         <v>6900</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3119</v>
+        <v>3054</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13678</v>
+        <v>13768</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.008705071422246762</v>
+        <v>0.008705071422246765</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003934747420364726</v>
+        <v>0.003853006037977674</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01725702741792002</v>
+        <v>0.01737053076720802</v>
       </c>
     </row>
     <row r="19">
@@ -10276,19 +10276,19 @@
         <v>193374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>185803</v>
+        <v>186267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>198265</v>
+        <v>198712</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.940238238007495</v>
+        <v>0.9402382380074952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9034233501712416</v>
+        <v>0.905680865169186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9640171565925757</v>
+        <v>0.9661936826902857</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>477</v>
@@ -10297,19 +10297,19 @@
         <v>218386</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211397</v>
+        <v>211695</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>222478</v>
+        <v>222271</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9628021164001147</v>
+        <v>0.9628021164001146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9319899288437899</v>
+        <v>0.933302963469991</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9808442208842673</v>
+        <v>0.9799292847345685</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>741</v>
@@ -10318,19 +10318,19 @@
         <v>411760</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>402358</v>
+        <v>401895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418434</v>
+        <v>418606</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.952072123275682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9303336351385638</v>
+        <v>0.9292634672150243</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9675051429366963</v>
+        <v>0.9679026527881059</v>
       </c>
     </row>
     <row r="21">
@@ -10347,19 +10347,19 @@
         <v>12291</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7400</v>
+        <v>6953</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19862</v>
+        <v>19398</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05976176199250492</v>
+        <v>0.05976176199250493</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03598284340742449</v>
+        <v>0.03380631730971424</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09657664982875856</v>
+        <v>0.09431913483081425</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -10368,19 +10368,19 @@
         <v>8437</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4345</v>
+        <v>4552</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15426</v>
+        <v>15128</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.03719788359988535</v>
+        <v>0.03719788359988534</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01915577911573253</v>
+        <v>0.02007071526543123</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06801007115620994</v>
+        <v>0.0666970365300088</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -10389,19 +10389,19 @@
         <v>20728</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14054</v>
+        <v>13882</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30130</v>
+        <v>30593</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04792787672431801</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03249485706330364</v>
+        <v>0.03209734721189415</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06966636486143622</v>
+        <v>0.07073653278497578</v>
       </c>
     </row>
     <row r="22">
@@ -10540,19 +10540,19 @@
         <v>212118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>199254</v>
+        <v>199805</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>223628</v>
+        <v>223853</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7858916836896982</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7382330272705935</v>
+        <v>0.7402717944049141</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8285376316089644</v>
+        <v>0.8293722767215496</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>331</v>
@@ -10561,19 +10561,19 @@
         <v>186668</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>174635</v>
+        <v>172478</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>198950</v>
+        <v>198505</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7077454675862953</v>
+        <v>0.7077454675862951</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6621246734871888</v>
+        <v>0.6539461997246682</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.754312233029004</v>
+        <v>0.7526247425282002</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>627</v>
@@ -10582,19 +10582,19 @@
         <v>398786</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>381288</v>
+        <v>380573</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>416588</v>
+        <v>414709</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7472693782592276</v>
+        <v>0.7472693782592277</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7144805752096345</v>
+        <v>0.7131402736920122</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7806270415897971</v>
+        <v>0.7771055270587141</v>
       </c>
     </row>
     <row r="25">
@@ -10611,19 +10611,19 @@
         <v>51895</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41317</v>
+        <v>40167</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65372</v>
+        <v>64771</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1922688620992928</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1530789427606873</v>
+        <v>0.1488193840176228</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2422021458215447</v>
+        <v>0.2399743405273375</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>118</v>
@@ -10632,19 +10632,19 @@
         <v>70126</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>58532</v>
+        <v>59007</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82088</v>
+        <v>83048</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2658794619885833</v>
+        <v>0.265879461988583</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2219222449824558</v>
+        <v>0.2237249672773947</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3112328386800158</v>
+        <v>0.3148725439176213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>183</v>
@@ -10653,19 +10653,19 @@
         <v>122021</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104566</v>
+        <v>107621</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138114</v>
+        <v>140482</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2286495240635581</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1959422739530144</v>
+        <v>0.2016668066296649</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2588057159924018</v>
+        <v>0.2632427509642478</v>
       </c>
     </row>
     <row r="26">
@@ -10682,19 +10682,19 @@
         <v>5895</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2318</v>
+        <v>2831</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11538</v>
+        <v>11690</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02183945421100899</v>
+        <v>0.02183945421100898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008588421287149196</v>
+        <v>0.01048705400324835</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04274758765775986</v>
+        <v>0.0433119273341423</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -10703,19 +10703,19 @@
         <v>6956</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3194</v>
+        <v>3535</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12073</v>
+        <v>12585</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02637507042512165</v>
+        <v>0.02637507042512164</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01211108200688813</v>
+        <v>0.01340246953403247</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04577570965130377</v>
+        <v>0.04771635287949945</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -10724,19 +10724,19 @@
         <v>12851</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8115</v>
+        <v>7512</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20020</v>
+        <v>20430</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02408109767721419</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01520672761251863</v>
+        <v>0.01407554054447934</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0375148061959542</v>
+        <v>0.03828305733877861</v>
       </c>
     </row>
     <row r="27">
@@ -10828,19 +10828,19 @@
         <v>613484</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>586351</v>
+        <v>589712</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>634670</v>
+        <v>637162</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8550914137747068</v>
+        <v>0.8550914137747065</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8172723618810417</v>
+        <v>0.8219570940340879</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8846205923552815</v>
+        <v>0.8880942878544102</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>855</v>
@@ -10849,19 +10849,19 @@
         <v>666127</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>643373</v>
+        <v>645010</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>684720</v>
+        <v>685461</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8644045028944261</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8348782412323706</v>
+        <v>0.8370020553818847</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8885327571470252</v>
+        <v>0.8894946115876461</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1380</v>
@@ -10870,19 +10870,19 @@
         <v>1279611</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1246536</v>
+        <v>1249307</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1309580</v>
+        <v>1309657</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8599143421399401</v>
+        <v>0.8599143421399398</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8376878203080255</v>
+        <v>0.8395497049312756</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8800540334043252</v>
+        <v>0.8801057860328957</v>
       </c>
     </row>
     <row r="29">
@@ -10899,19 +10899,19 @@
         <v>88228</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>67314</v>
+        <v>67494</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>114574</v>
+        <v>112865</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1229748637708027</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09382446521069361</v>
+        <v>0.09407546722233182</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1596958287533388</v>
+        <v>0.1573138893116308</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>88</v>
@@ -10920,19 +10920,19 @@
         <v>87722</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>71517</v>
+        <v>69796</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>109214</v>
+        <v>108089</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1138337266404252</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09280493672637348</v>
+        <v>0.09057090173617145</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1417224599074093</v>
+        <v>0.1402626562252512</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>148</v>
@@ -10941,19 +10941,19 @@
         <v>175951</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>146647</v>
+        <v>147971</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>208811</v>
+        <v>205458</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1182409834234929</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09854861157651801</v>
+        <v>0.09943847999142291</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.140323734980404</v>
+        <v>0.1380704779881844</v>
       </c>
     </row>
     <row r="30">
@@ -10970,19 +10970,19 @@
         <v>15736</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8363</v>
+        <v>7732</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29666</v>
+        <v>26841</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02193372245449073</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01165685341900716</v>
+        <v>0.01077657144711636</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04134947933887087</v>
+        <v>0.03741167016625742</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -10991,19 +10991,19 @@
         <v>16770</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9427</v>
+        <v>9701</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27506</v>
+        <v>28434</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02176177046514874</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01223302689381421</v>
+        <v>0.01258894718794631</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03569344096829609</v>
+        <v>0.03689708950897006</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -11012,19 +11012,19 @@
         <v>32506</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20650</v>
+        <v>21162</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>46916</v>
+        <v>47691</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02184467443656725</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01387684338497585</v>
+        <v>0.01422082395345761</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03152808652519563</v>
+        <v>0.03204885866738183</v>
       </c>
     </row>
     <row r="31">
@@ -11116,19 +11116,19 @@
         <v>541076</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>511052</v>
+        <v>512732</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>568269</v>
+        <v>569834</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6779791792334073</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6403587791149806</v>
+        <v>0.6424637485393535</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7120525535767089</v>
+        <v>0.7140135702075072</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>879</v>
@@ -11137,19 +11137,19 @@
         <v>680814</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>658266</v>
+        <v>658601</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>701144</v>
+        <v>698744</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8210733156692511</v>
+        <v>0.8210733156692513</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7938801993954431</v>
+        <v>0.7942834157066665</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8455914371355667</v>
+        <v>0.8426967116233564</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1417</v>
@@ -11158,19 +11158,19 @@
         <v>1221890</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1180911</v>
+        <v>1185934</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1256819</v>
+        <v>1257957</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7508938353705416</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7257107027203957</v>
+        <v>0.728797376172696</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7723586828896314</v>
+        <v>0.7730578009975665</v>
       </c>
     </row>
     <row r="33">
@@ -11187,19 +11187,19 @@
         <v>245653</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>219435</v>
+        <v>217511</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>276538</v>
+        <v>274624</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3078080554622106</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2749565399022542</v>
+        <v>0.2725453773900411</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3465076977270439</v>
+        <v>0.3441087290185954</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>176</v>
@@ -11208,19 +11208,19 @@
         <v>144551</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>124310</v>
+        <v>127489</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>166896</v>
+        <v>167824</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1743308424828049</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1499203188805749</v>
+        <v>0.1537542799986651</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2012793900780092</v>
+        <v>0.2023982290348675</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>390</v>
@@ -11229,19 +11229,19 @@
         <v>390204</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>356033</v>
+        <v>354648</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>429147</v>
+        <v>426742</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2397937724947187</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2187948482097577</v>
+        <v>0.217943569874701</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2637256019482068</v>
+        <v>0.2622477132277022</v>
       </c>
     </row>
     <row r="34">
@@ -11258,19 +11258,19 @@
         <v>11343</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5682</v>
+        <v>5979</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20138</v>
+        <v>23852</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.014212765304382</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007119233982080695</v>
+        <v>0.007491445948054617</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02523284908059171</v>
+        <v>0.02988691209104275</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -11279,19 +11279,19 @@
         <v>3811</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>776</v>
+        <v>977</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9729</v>
+        <v>9696</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.004595841847943842</v>
+        <v>0.004595841847943843</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0009358879790080918</v>
+        <v>0.001178040388803971</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01173307960389463</v>
+        <v>0.01169339674433485</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -11300,19 +11300,19 @@
         <v>15154</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8476</v>
+        <v>8991</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24607</v>
+        <v>25655</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.009312392134739816</v>
+        <v>0.009312392134739814</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005208804505465929</v>
+        <v>0.005525448745828993</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01512191354159735</v>
+        <v>0.01576593984133766</v>
       </c>
     </row>
     <row r="35">
@@ -11404,19 +11404,19 @@
         <v>2927068</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2876345</v>
+        <v>2873964</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2982013</v>
+        <v>2973883</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.8303109469565282</v>
+        <v>0.8303109469565281</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8159226741414348</v>
+        <v>0.815247318736721</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8458969496907122</v>
+        <v>0.8435907852154841</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4731</v>
@@ -11425,19 +11425,19 @@
         <v>3233269</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3192500</v>
+        <v>3191452</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3270878</v>
+        <v>3272721</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.8666753505185365</v>
+        <v>0.8666753505185366</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8557470912014702</v>
+        <v>0.8554663252050059</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8767564083376427</v>
+        <v>0.8772503428266534</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7601</v>
@@ -11446,19 +11446,19 @@
         <v>6160337</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6098622</v>
+        <v>6088335</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6228286</v>
+        <v>6220049</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.8490078270554207</v>
+        <v>0.8490078270554208</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8405023230017338</v>
+        <v>0.8390846785831384</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8583724706082518</v>
+        <v>0.8572372825323891</v>
       </c>
     </row>
     <row r="37">
@@ -11475,19 +11475,19 @@
         <v>537993</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>490276</v>
+        <v>493035</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>584571</v>
+        <v>588093</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1526105147462347</v>
+        <v>0.1526105147462346</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1390748030809322</v>
+        <v>0.1398575833334949</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1658232797748735</v>
+        <v>0.166822161472444</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>557</v>
@@ -11496,19 +11496,19 @@
         <v>439962</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>405209</v>
+        <v>403417</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>479270</v>
+        <v>477639</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1179314695839762</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1086160135844073</v>
+        <v>0.1081356807936664</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1284678515871077</v>
+        <v>0.1280307127063859</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1006</v>
@@ -11517,19 +11517,19 @@
         <v>977955</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>911584</v>
+        <v>918112</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1038266</v>
+        <v>1048146</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1347801673231787</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1256329846118694</v>
+        <v>0.1265327512480832</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1430922064931723</v>
+        <v>0.1444538461672995</v>
       </c>
     </row>
     <row r="38">
@@ -11546,19 +11546,19 @@
         <v>60206</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44190</v>
+        <v>44259</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>79323</v>
+        <v>79171</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01707853829723725</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01253531565375508</v>
+        <v>0.01255493392730842</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02250115623867711</v>
+        <v>0.02245817622945288</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>70</v>
@@ -11567,19 +11567,19 @@
         <v>57427</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>45701</v>
+        <v>45169</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>74172</v>
+        <v>73712</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01539317989748721</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01225005030813078</v>
+        <v>0.01210762330382762</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01988163131071137</v>
+        <v>0.01975847898467285</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>120</v>
@@ -11588,19 +11588,19 @@
         <v>117633</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>96943</v>
+        <v>98401</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>144897</v>
+        <v>142918</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.01621200562140068</v>
+        <v>0.01621200562140069</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01336047961593701</v>
+        <v>0.01356141123181187</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01996941648219766</v>
+        <v>0.01969679674492376</v>
       </c>
     </row>
     <row r="39">
